--- a/data/trans_orig/P04B3_3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19506</v>
+        <v>19589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01556327428407585</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003186415077425597</v>
+        <v>0.003220705304444297</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04783202800667499</v>
+        <v>0.04803745938892039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>4320</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1160</v>
+        <v>1186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11994</v>
+        <v>12877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01191572050416504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003200995105430712</v>
+        <v>0.003271143487212888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03308561400519268</v>
+        <v>0.03552187108979809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>10666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3473</v>
+        <v>4143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23630</v>
+        <v>23615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01384670505504887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004508883076925531</v>
+        <v>0.005378330504056451</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03067664398355159</v>
+        <v>0.0306568095815055</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14260</v>
+        <v>12675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50237</v>
+        <v>48498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06521692237871522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03496786312576807</v>
+        <v>0.0310827930984562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1231922853245586</v>
+        <v>0.1189280488849002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>39661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26742</v>
+        <v>24491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59730</v>
+        <v>58570</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.109406284666719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0737684459295624</v>
+        <v>0.06756007298235971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1647661266757843</v>
+        <v>0.1615662669968319</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>66256</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45209</v>
+        <v>46021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92230</v>
+        <v>93429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08601280480591481</v>
+        <v>0.08601280480591479</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05868964500151663</v>
+        <v>0.05974422962739765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1197312984234929</v>
+        <v>0.1212877596885835</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>374851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>349486</v>
+        <v>352851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>389337</v>
+        <v>390484</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9192198033372091</v>
+        <v>0.919219803337209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.857019274557582</v>
+        <v>0.8652698837371654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9547426989123632</v>
+        <v>0.9575556031846352</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>182</v>
@@ -904,19 +904,19 @@
         <v>318531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>299019</v>
+        <v>299169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>332257</v>
+        <v>334442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8786779948291158</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8248521941089206</v>
+        <v>0.8252656514321109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9165408506879278</v>
+        <v>0.9225685345884778</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>341</v>
@@ -925,19 +925,19 @@
         <v>693383</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>665151</v>
+        <v>664530</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>715610</v>
+        <v>716112</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9001404901390364</v>
+        <v>0.9001404901390363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8634909715102457</v>
+        <v>0.8626836588980654</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9289954378235231</v>
+        <v>0.9296476836858238</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>18138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10198</v>
+        <v>9619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33077</v>
+        <v>31461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03803423595477967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02138450961969748</v>
+        <v>0.02017013056596913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06936017024540971</v>
+        <v>0.06597014247264957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1050,19 +1050,19 @@
         <v>7698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3161</v>
+        <v>3258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16365</v>
+        <v>16064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01534282999789639</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006299286123594756</v>
+        <v>0.006493656474869418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03261655833422155</v>
+        <v>0.03201613415352804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1071,19 +1071,19 @@
         <v>25836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16188</v>
+        <v>15086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39496</v>
+        <v>41209</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02640052229038379</v>
+        <v>0.0264005222903838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01654204640208363</v>
+        <v>0.01541546839662955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04035923522995889</v>
+        <v>0.04210866853879273</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>41970</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27823</v>
+        <v>27997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59156</v>
+        <v>59070</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08800865217891668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05834175725525167</v>
+        <v>0.058707326198403</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1240446817871637</v>
+        <v>0.123864312417135</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -1121,19 +1121,19 @@
         <v>57266</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>44587</v>
+        <v>42144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73546</v>
+        <v>72550</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1141366014166625</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08886598805682001</v>
+        <v>0.08399750394852121</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1465847907702436</v>
+        <v>0.1445996514307033</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -1142,19 +1142,19 @@
         <v>99237</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>79607</v>
+        <v>78108</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>123904</v>
+        <v>125038</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1014042558117361</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08134613751347466</v>
+        <v>0.07981375180110115</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1266102690050164</v>
+        <v>0.1277690405610317</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>416781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>397482</v>
+        <v>395213</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>434422</v>
+        <v>433029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8739571118663035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8334877147524078</v>
+        <v>0.8287297605901441</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9109477389526826</v>
+        <v>0.9080264257641888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>403</v>
@@ -1192,19 +1192,19 @@
         <v>436769</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>418745</v>
+        <v>419246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>450932</v>
+        <v>451683</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8705205685854409</v>
+        <v>0.870520568585441</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8345963516657956</v>
+        <v>0.8355948421529663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.898749493191161</v>
+        <v>0.9002453141316649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>667</v>
@@ -1213,19 +1213,19 @@
         <v>853550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>828039</v>
+        <v>826516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>875292</v>
+        <v>876682</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8721952218978801</v>
+        <v>0.87219522189788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8461269212468729</v>
+        <v>0.844570095032629</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8944120432092959</v>
+        <v>0.8958324885543574</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>8664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3677</v>
+        <v>3894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16417</v>
+        <v>16760</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01398254720513349</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005933223594097156</v>
+        <v>0.006284102100890834</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02649319958340923</v>
+        <v>0.02704740156222834</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1338,19 +1338,19 @@
         <v>8982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4849</v>
+        <v>4662</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15676</v>
+        <v>14971</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01445244033224832</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007802135104673976</v>
+        <v>0.00750130156670974</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02522357117833777</v>
+        <v>0.0240886414094683</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1359,19 +1359,19 @@
         <v>17646</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10658</v>
+        <v>11141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26878</v>
+        <v>26335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01421783807420924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008587120681873717</v>
+        <v>0.008976303934471467</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0216557697256257</v>
+        <v>0.0212182997727293</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>65371</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49498</v>
+        <v>49977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82032</v>
+        <v>82494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1054953420893355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07987929290601038</v>
+        <v>0.08065298099919792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1323819195098705</v>
+        <v>0.1331279157587976</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1409,19 +1409,19 @@
         <v>40720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31174</v>
+        <v>30847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51336</v>
+        <v>51213</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06552136738255426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0501603645238738</v>
+        <v>0.0496355978542862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08260348924671818</v>
+        <v>0.08240491288964792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -1430,19 +1430,19 @@
         <v>106091</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87401</v>
+        <v>88310</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124765</v>
+        <v>127038</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08547906454358604</v>
+        <v>0.08547906454358603</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07041988230039459</v>
+        <v>0.07115234600950214</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1005247177345874</v>
+        <v>0.1023563751384552</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>545623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528684</v>
+        <v>526909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>563722</v>
+        <v>562620</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8805221107055313</v>
+        <v>0.880522110705531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8531852415558216</v>
+        <v>0.8503203044668004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9097288844629425</v>
+        <v>0.9079512387929028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>782</v>
@@ -1480,19 +1480,19 @@
         <v>571776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>559820</v>
+        <v>559706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>581872</v>
+        <v>582830</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9200261922851974</v>
+        <v>0.9200261922851972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9007874404739404</v>
+        <v>0.9006043769926306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9362709912197805</v>
+        <v>0.9378119596967368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1261</v>
@@ -1501,19 +1501,19 @@
         <v>1117399</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1097373</v>
+        <v>1096445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1137266</v>
+        <v>1138290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9003030973822046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.884167563691711</v>
+        <v>0.883419501110321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9163099107792092</v>
+        <v>0.9171344647387228</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>10600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5246</v>
+        <v>5018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19797</v>
+        <v>19391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01514904844738159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007498257559312472</v>
+        <v>0.007171846220581697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0282938459635843</v>
+        <v>0.02771431078800932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1626,19 +1626,19 @@
         <v>16073</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10203</v>
+        <v>10875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22922</v>
+        <v>23406</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02183238853762509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01385932596288097</v>
+        <v>0.01477258812181372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03113638840741109</v>
+        <v>0.03179397799455235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1647,19 +1647,19 @@
         <v>26672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18676</v>
+        <v>18835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38421</v>
+        <v>37751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01857566242735659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01300707689068713</v>
+        <v>0.01311720731111828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02675796427596349</v>
+        <v>0.02629179168410496</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>47583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35974</v>
+        <v>35521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62378</v>
+        <v>62468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06800596885281608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05141455578927046</v>
+        <v>0.05076714980328028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08915251181590179</v>
+        <v>0.08928082245224038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -1697,19 +1697,19 @@
         <v>64988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54456</v>
+        <v>53347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77879</v>
+        <v>79530</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08827706783340246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07397145511217082</v>
+        <v>0.0724649435459485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.105787090910137</v>
+        <v>0.1080301184912163</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -1718,19 +1718,19 @@
         <v>112571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94232</v>
+        <v>95570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129945</v>
+        <v>131795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07839916001448317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06562758034020655</v>
+        <v>0.06655898923591333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09049966852977141</v>
+        <v>0.09178760115744443</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>641501</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>624715</v>
+        <v>625394</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>654819</v>
+        <v>654793</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9168449826998022</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8928541070186403</v>
+        <v>0.8938245700716541</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9358789679704538</v>
+        <v>0.9358416819344432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1021</v>
@@ -1768,19 +1768,19 @@
         <v>655121</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>641172</v>
+        <v>638853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>667206</v>
+        <v>668894</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8898905436289725</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8709428002778082</v>
+        <v>0.8677920901684171</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.906306288934142</v>
+        <v>0.9085980374060735</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1631</v>
@@ -1789,19 +1789,19 @@
         <v>1296622</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1277272</v>
+        <v>1274763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1316773</v>
+        <v>1316440</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9030251775581604</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8895491196664483</v>
+        <v>0.8878015427783114</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9170590602960975</v>
+        <v>0.9168274377569366</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>9294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4898</v>
+        <v>4970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16171</v>
+        <v>16775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01525315102463453</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008038796537657635</v>
+        <v>0.008156018903862253</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0265390228193561</v>
+        <v>0.0275292199919497</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1914,19 +1914,19 @@
         <v>13615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8374</v>
+        <v>8355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21235</v>
+        <v>20422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0223864791327542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01376888706629981</v>
+        <v>0.01373752106866398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03491693997594513</v>
+        <v>0.03357866850872422</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -1935,19 +1935,19 @@
         <v>22909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15987</v>
+        <v>15968</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30789</v>
+        <v>31618</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01881636911745823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01313114764967618</v>
+        <v>0.01311491277184395</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02528820103375536</v>
+        <v>0.02596904723007054</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>45989</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35183</v>
+        <v>35737</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61053</v>
+        <v>59997</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07547255587666259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05773853628293691</v>
+        <v>0.05864771836578886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1001950049851937</v>
+        <v>0.09846111710385422</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -1985,19 +1985,19 @@
         <v>52836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43454</v>
+        <v>43483</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66219</v>
+        <v>65363</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.0868764055516475</v>
+        <v>0.08687640555164751</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07145055187633459</v>
+        <v>0.07149854338307672</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1088831164338675</v>
+        <v>0.1074741851250657</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>133</v>
@@ -2006,19 +2006,19 @@
         <v>98825</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>83598</v>
+        <v>83733</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>117178</v>
+        <v>117177</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08116897175349502</v>
+        <v>0.08116897175349501</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06866277753673608</v>
+        <v>0.06877382064153037</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09624354559536713</v>
+        <v>0.09624218915983968</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>554063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>538471</v>
+        <v>537715</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>565508</v>
+        <v>565172</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9092742930987029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8836865368024962</v>
+        <v>0.8824468355849612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9280576868649939</v>
+        <v>0.9275052984790928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>898</v>
@@ -2056,19 +2056,19 @@
         <v>541720</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>527305</v>
+        <v>528991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>553126</v>
+        <v>552855</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8907371153155984</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.867034978439206</v>
+        <v>0.8698079679626722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9094931530723946</v>
+        <v>0.909047363659757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1499</v>
@@ -2077,19 +2077,19 @@
         <v>1095783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1076154</v>
+        <v>1074927</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1112538</v>
+        <v>1112839</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9000146591290469</v>
+        <v>0.9000146591290468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8838926139683511</v>
+        <v>0.8828842397719847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9137762448822457</v>
+        <v>0.9140236203910117</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>4893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1996</v>
+        <v>1902</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9751</v>
+        <v>9585</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01201910263932438</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004902612623950958</v>
+        <v>0.004672645122972604</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02395415581986842</v>
+        <v>0.02354542519033693</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2202,19 +2202,19 @@
         <v>4043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1848</v>
+        <v>1772</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8041</v>
+        <v>8119</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0092197188696664</v>
+        <v>0.009219718869666401</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004213747219434837</v>
+        <v>0.00404091157034595</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01833394016928803</v>
+        <v>0.01851224954532769</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2223,19 +2223,19 @@
         <v>8936</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4762</v>
+        <v>4919</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14399</v>
+        <v>15317</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01056728946018473</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005631735620002657</v>
+        <v>0.005817109276361747</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0170272421569935</v>
+        <v>0.01811243457113641</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>38947</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30151</v>
+        <v>29457</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49142</v>
+        <v>49017</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09567374941302444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07406612009855083</v>
+        <v>0.07236075091337836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.120718942800016</v>
+        <v>0.120412108181496</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2273,19 +2273,19 @@
         <v>29624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22111</v>
+        <v>22202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38089</v>
+        <v>38464</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0675459075312579</v>
+        <v>0.06754590753125789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05041611008807521</v>
+        <v>0.05062274041511426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08684771043657584</v>
+        <v>0.08770434622949916</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2294,19 +2294,19 @@
         <v>68570</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56642</v>
+        <v>57011</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82175</v>
+        <v>81885</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0810861205257947</v>
+        <v>0.08108612052579468</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06698084368791273</v>
+        <v>0.06741704913868556</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09717409355631586</v>
+        <v>0.09683087809196617</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>363240</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>353083</v>
+        <v>352154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>372949</v>
+        <v>372500</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8923071479476512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8673541753303409</v>
+        <v>0.8650733808717083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9161567194873091</v>
+        <v>0.9150538589796003</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>766</v>
@@ -2344,19 +2344,19 @@
         <v>404903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>396004</v>
+        <v>395877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>412574</v>
+        <v>412639</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9232343735990757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9029430700669911</v>
+        <v>0.9026550492700179</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9407255466933098</v>
+        <v>0.9408743125677681</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1275</v>
@@ -2365,19 +2365,19 @@
         <v>768142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>753265</v>
+        <v>753316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>781248</v>
+        <v>780599</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9083465900140206</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8907533493237331</v>
+        <v>0.8908139646319937</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9238442908969158</v>
+        <v>0.9230764446702894</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>3019</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6884</v>
+        <v>7082</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00973148021621897</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00353806284556039</v>
+        <v>0.003525002418446785</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02219113615146827</v>
+        <v>0.02283147727298489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2490,19 +2490,19 @@
         <v>3558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1808</v>
+        <v>1632</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6988</v>
+        <v>6864</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.00765879930214652</v>
+        <v>0.007658799302146517</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003891299911481785</v>
+        <v>0.003512624495628425</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01504012761010146</v>
+        <v>0.01477468330899657</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2511,19 +2511,19 @@
         <v>6577</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3803</v>
+        <v>3668</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10596</v>
+        <v>11059</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00848860846511656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004908024303509775</v>
+        <v>0.004734200963020407</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01367560391467065</v>
+        <v>0.01427265298418839</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>25763</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18786</v>
+        <v>19004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34566</v>
+        <v>36230</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08305469205582014</v>
+        <v>0.08305469205582013</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06056115668034107</v>
+        <v>0.06126412721048712</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1114331212145767</v>
+        <v>0.1167953123062885</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -2561,19 +2561,19 @@
         <v>42811</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34645</v>
+        <v>33739</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>52931</v>
+        <v>53235</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09214360084635323</v>
+        <v>0.0921436008463532</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07456913562134701</v>
+        <v>0.07261740552043061</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1139252314682704</v>
+        <v>0.1145806894491184</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>115</v>
@@ -2582,19 +2582,19 @@
         <v>68574</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>56506</v>
+        <v>56843</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81582</v>
+        <v>81511</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08850480640164324</v>
+        <v>0.0885048064016432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07292964591027129</v>
+        <v>0.0733638459551505</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.105293328553615</v>
+        <v>0.1052013274272484</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>281416</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>272353</v>
+        <v>271052</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>288928</v>
+        <v>288839</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9072138277279608</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8779983000833083</v>
+        <v>0.8738022852939088</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.931432302722831</v>
+        <v>0.9311441881474201</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>796</v>
@@ -2632,19 +2632,19 @@
         <v>418240</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>408070</v>
+        <v>407980</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>426996</v>
+        <v>427617</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9001975998515003</v>
+        <v>0.9001975998515002</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8783080343944263</v>
+        <v>0.8781151529570284</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9190433595238043</v>
+        <v>0.9203802580706575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1211</v>
@@ -2653,19 +2653,19 @@
         <v>699656</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>686395</v>
+        <v>685302</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>712458</v>
+        <v>711244</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9030065851332403</v>
+        <v>0.9030065851332402</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8858917569500192</v>
+        <v>0.8844814000658214</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9195293611743635</v>
+        <v>0.9179624576967204</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>60955</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45866</v>
+        <v>45673</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>83357</v>
+        <v>81873</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01726440501932457</v>
+        <v>0.01726440501932456</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01299091914327382</v>
+        <v>0.01293626256541656</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02360939951979433</v>
+        <v>0.02318931540326943</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>82</v>
@@ -2778,19 +2778,19 @@
         <v>58289</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46634</v>
+        <v>46682</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72996</v>
+        <v>73807</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01561337894427394</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0124915001687832</v>
+        <v>0.01250432597714341</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01955287897377378</v>
+        <v>0.01977014992340086</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>137</v>
@@ -2799,19 +2799,19 @@
         <v>119243</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>98823</v>
+        <v>98627</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>143791</v>
+        <v>143883</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01641586691749811</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01360470488172762</v>
+        <v>0.01357771474745226</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01979523209728891</v>
+        <v>0.01980793993574256</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>292218</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>258135</v>
+        <v>258065</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>328721</v>
+        <v>331213</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08276618926815972</v>
+        <v>0.08276618926815969</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07311263640402357</v>
+        <v>0.07309277811098924</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09310508898760923</v>
+        <v>0.09381090516156353</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>432</v>
@@ -2849,19 +2849,19 @@
         <v>327905</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>297673</v>
+        <v>296572</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>361922</v>
+        <v>361349</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08783362954097965</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07973542927345624</v>
+        <v>0.07944052277741759</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09694557386410371</v>
+        <v>0.09679205928751311</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>714</v>
@@ -2870,19 +2870,19 @@
         <v>620124</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>573846</v>
+        <v>574728</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>672756</v>
+        <v>671680</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08537057948052244</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0789996552885666</v>
+        <v>0.07912109140888267</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09261637105615719</v>
+        <v>0.09246821835929973</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>3177477</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3137481</v>
+        <v>3135008</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3214495</v>
+        <v>3213528</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.8999694057125157</v>
+        <v>0.8999694057125156</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8886410904394354</v>
+        <v>0.8879406067194674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9104540730135547</v>
+        <v>0.9101803352116221</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4848</v>
@@ -2920,19 +2920,19 @@
         <v>3347059</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3308501</v>
+        <v>3310438</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3378779</v>
+        <v>3380552</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8965529915147463</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8862246282284623</v>
+        <v>0.8867434498100671</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9050495176834989</v>
+        <v>0.9055244582499949</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7885</v>
@@ -2941,19 +2941,19 @@
         <v>6524536</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6468329</v>
+        <v>6470164</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6581193</v>
+        <v>6576945</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8982135536019793</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8904756847709205</v>
+        <v>0.8907283422283002</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9060133426844821</v>
+        <v>0.9054285826814701</v>
       </c>
     </row>
     <row r="35">
